--- a/data/exemplo_colaboradores.xlsx
+++ b/data/exemplo_colaboradores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,128 +436,162 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>codigo_colaborador</t>
+          <t>Colaborador</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>codigo_rede</t>
+          <t>Filial</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>codigo_filial</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>nome</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>cargo</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
+          <t>Data de Cadastro</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>COL001</t>
+          <t>João Silva</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RED001</t>
+          <t>Filial Porto Alegre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>FIL001</t>
+          <t>Rede Sul</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>João Silva</t>
+          <t>ATIVO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Vendedor</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>ATIVO</t>
+          <t>2024-08-01</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>COL002</t>
+          <t>Maria Santos</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RED001</t>
+          <t>Filial Florianópolis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>FIL001</t>
+          <t>Rede Sul</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Maria Santos</t>
+          <t>ATIVO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Gerente</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>ATIVO</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>COL003</t>
+          <t>Pedro Oliveira</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>RED002</t>
+          <t>Filial Manaus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FIL002</t>
+          <t>Rede Norte</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Pedro Souza</t>
+          <t>ATIVO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Vendedor</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+          <t>2024-12-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ana Costa</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Filial Belém</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Rede Norte</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>ATIVO</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Carlos Souza</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Filial Brasília</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Rede Centro</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ATIVO</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
         </is>
       </c>
     </row>
